--- a/dg/media/data_upload/Sample_Geographical_Add.xlsx
+++ b/dg/media/data_upload/Sample_Geographical_Add.xlsx
@@ -24,13 +24,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Village_Name</t>
+    <t xml:space="preserve">District_Name</t>
   </si>
   <si>
     <t xml:space="preserve">Block_Name</t>
   </si>
   <si>
-    <t xml:space="preserve">District_Name</t>
+    <t xml:space="preserve">Village_Name</t>
   </si>
 </sst>
 </file>
@@ -41,7 +41,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,6 +63,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -115,7 +122,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -128,7 +135,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -149,10 +160,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -176,10 +187,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
